--- a/sg/0.7.0-snapshot-1/ig/StructureDefinition-ror-commune-cog.xlsx
+++ b/sg/0.7.0-snapshot-1/ig/StructureDefinition-ror-commune-cog.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:52:44+00:00</t>
+    <t>2025-10-17T10:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/0.7.0-snapshot-1/ig/StructureDefinition-ror-commune-cog.xlsx
+++ b/sg/0.7.0-snapshot-1/ig/StructureDefinition-ror-commune-cog.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T10:03:04+00:00</t>
+    <t>2025-10-17T10:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
